--- a/mbs-EP-v.1.0.6 - eq mot/Excel Files/flyball_governor/flyball_governor_si.xlsx
+++ b/mbs-EP-v.1.0.6 - eq mot/Excel Files/flyball_governor/flyball_governor_si.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.6 - eq mot\Excel Files\flyball_governor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC3E112-74FE-4B62-9442-DF66F7C539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B04AA9-EB59-4466-9BDA-5FE65E7585F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="945" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="4215" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -1131,7 +1131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1289,7 +1289,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1313,18 +1312,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1334,12 +1453,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1349,101 +1462,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1454,7 +1474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1463,7 +1483,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1475,34 +1501,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1532,34 +1576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2018,44 +2035,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
-      <c r="J2" s="71" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116"/>
+      <c r="J2" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="45">
         <v>5</v>
       </c>
       <c r="E3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="78" t="s">
+      <c r="J3" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="78" t="s">
+      <c r="K3" s="93"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="85"/>
       <c r="P3" s="39" t="s">
         <v>153</v>
       </c>
@@ -2064,10 +2081,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="45">
         <v>1E-3</v>
       </c>
@@ -2080,14 +2097,14 @@
       <c r="K4" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="81"/>
+      <c r="L4" s="118"/>
       <c r="M4" s="38" t="s">
         <v>124</v>
       </c>
       <c r="N4" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="O4" s="93"/>
+      <c r="O4" s="86"/>
       <c r="P4" s="39" t="s">
         <v>154</v>
       </c>
@@ -2096,10 +2113,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="45" t="s">
         <v>79</v>
       </c>
@@ -2112,14 +2129,14 @@
       <c r="K5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="81"/>
+      <c r="L5" s="118"/>
       <c r="M5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="93"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="39" t="s">
         <v>155</v>
       </c>
@@ -2128,10 +2145,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="45" t="s">
         <v>3</v>
       </c>
@@ -2144,14 +2161,14 @@
       <c r="K6" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="81"/>
+      <c r="L6" s="118"/>
       <c r="M6" s="39" t="s">
         <v>126</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="O6" s="93"/>
+      <c r="O6" s="86"/>
       <c r="P6" s="39" t="s">
         <v>159</v>
       </c>
@@ -2160,12 +2177,12 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="45">
-        <v>-9.8066499999999994</v>
+        <v>-9.81</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>103</v>
@@ -2176,14 +2193,14 @@
       <c r="K7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="81"/>
+      <c r="L7" s="118"/>
       <c r="M7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="93"/>
+      <c r="O7" s="86"/>
       <c r="P7" s="39" t="s">
         <v>158</v>
       </c>
@@ -2192,10 +2209,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="45" t="s">
         <v>255</v>
       </c>
@@ -2208,14 +2225,14 @@
       <c r="K8" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="81"/>
+      <c r="L8" s="118"/>
       <c r="M8" s="39" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="93"/>
+      <c r="O8" s="86"/>
       <c r="P8" s="39" t="s">
         <v>162</v>
       </c>
@@ -2224,10 +2241,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="45"/>
       <c r="E9" s="46" t="s">
         <v>117</v>
@@ -2238,14 +2255,14 @@
       <c r="K9" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="81"/>
+      <c r="L9" s="118"/>
       <c r="M9" s="39" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="93"/>
+      <c r="O9" s="86"/>
       <c r="P9" s="39" t="s">
         <v>163</v>
       </c>
@@ -2260,14 +2277,14 @@
       <c r="K10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="81"/>
+      <c r="L10" s="118"/>
       <c r="M10" s="39" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="93"/>
+      <c r="O10" s="86"/>
       <c r="P10" s="44" t="s">
         <v>164</v>
       </c>
@@ -2278,14 +2295,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="48"/>
       <c r="K11" s="49"/>
-      <c r="L11" s="81"/>
+      <c r="L11" s="118"/>
       <c r="M11" s="39" t="s">
         <v>128</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="93"/>
+      <c r="O11" s="86"/>
       <c r="P11" s="44" t="s">
         <v>165</v>
       </c>
@@ -2294,25 +2311,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
       <c r="J12" s="50"/>
       <c r="K12" s="51"/>
-      <c r="L12" s="81"/>
+      <c r="L12" s="118"/>
       <c r="M12" s="39" t="s">
         <v>129</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="O12" s="93"/>
+      <c r="O12" s="86"/>
       <c r="P12" s="39" t="s">
         <v>170</v>
       </c>
@@ -2321,29 +2338,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E13" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
       <c r="J13" s="50"/>
       <c r="K13" s="51"/>
-      <c r="L13" s="81"/>
+      <c r="L13" s="118"/>
       <c r="M13" s="39" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="93"/>
+      <c r="O13" s="86"/>
       <c r="P13" s="44" t="s">
         <v>171</v>
       </c>
@@ -2352,29 +2369,29 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
       <c r="J14" s="52"/>
       <c r="K14" s="53"/>
-      <c r="L14" s="81"/>
+      <c r="L14" s="118"/>
       <c r="M14" s="39" t="s">
         <v>130</v>
       </c>
       <c r="N14" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="O14" s="93"/>
+      <c r="O14" s="86"/>
       <c r="P14" s="44" t="s">
         <v>172</v>
       </c>
@@ -2383,31 +2400,31 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E15" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="J15" s="78" t="s">
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="J15" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="79"/>
-      <c r="L15" s="81"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="118"/>
       <c r="M15" s="39" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="93"/>
+      <c r="O15" s="86"/>
       <c r="P15" s="44" t="s">
         <v>173</v>
       </c>
@@ -2416,33 +2433,33 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
       <c r="J16" s="39" t="s">
         <v>90</v>
       </c>
       <c r="K16" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="81"/>
+      <c r="L16" s="118"/>
       <c r="M16" s="39" t="s">
         <v>131</v>
       </c>
       <c r="N16" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="O16" s="93"/>
+      <c r="O16" s="86"/>
       <c r="P16" s="39" t="s">
         <v>178</v>
       </c>
@@ -2451,31 +2468,31 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
       <c r="J17" s="39" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="81"/>
-      <c r="M17" s="78" t="s">
+      <c r="L17" s="118"/>
+      <c r="M17" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="N17" s="79"/>
-      <c r="O17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="86"/>
       <c r="P17" s="44" t="s">
         <v>179</v>
       </c>
@@ -2484,33 +2501,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="95"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
       <c r="J18" s="39" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="81"/>
+      <c r="L18" s="118"/>
       <c r="M18" s="47" t="s">
         <v>152</v>
       </c>
       <c r="N18" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="O18" s="93"/>
+      <c r="O18" s="86"/>
       <c r="P18" s="44" t="s">
         <v>180</v>
       </c>
@@ -2519,31 +2536,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="95"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="59"/>
       <c r="E19" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
       <c r="J19" s="39" t="s">
         <v>92</v>
       </c>
       <c r="K19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="81"/>
+      <c r="L19" s="118"/>
       <c r="M19" s="40" t="s">
         <v>144</v>
       </c>
       <c r="N19" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="93"/>
+      <c r="O19" s="86"/>
       <c r="P19" s="44" t="s">
         <v>181</v>
       </c>
@@ -2552,33 +2569,33 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="85"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="42" t="s">
         <v>231</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
       <c r="J20" s="39" t="s">
         <v>98</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="81"/>
+      <c r="L20" s="118"/>
       <c r="M20" s="40" t="s">
         <v>145</v>
       </c>
       <c r="N20" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="93"/>
+      <c r="O20" s="86"/>
       <c r="P20" s="39" t="s">
         <v>186</v>
       </c>
@@ -2587,31 +2604,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="72"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="43"/>
       <c r="E21" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
       <c r="J21" s="39" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="81"/>
+      <c r="L21" s="118"/>
       <c r="M21" s="40" t="s">
         <v>146</v>
       </c>
       <c r="N21" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="O21" s="93"/>
+      <c r="O21" s="86"/>
       <c r="P21" s="44" t="s">
         <v>187</v>
       </c>
@@ -2620,35 +2637,35 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="98"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="59">
         <v>3</v>
       </c>
-      <c r="E22" s="103" t="s">
+      <c r="E22" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="106" t="s">
+      <c r="F22" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="107"/>
-      <c r="H22" s="108"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
       <c r="J22" s="27" t="s">
         <v>104</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="82"/>
+      <c r="L22" s="119"/>
       <c r="M22" s="40" t="s">
         <v>147</v>
       </c>
       <c r="N22" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O22" s="93"/>
+      <c r="O22" s="86"/>
       <c r="P22" s="44" t="s">
         <v>188</v>
       </c>
@@ -2657,21 +2674,21 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="59">
         <v>4</v>
       </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="93"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="86"/>
       <c r="P23" s="44" t="s">
         <v>189</v>
       </c>
@@ -2680,19 +2697,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="98"/>
       <c r="D24" s="59"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="111"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="93"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="86"/>
       <c r="P24" s="27" t="s">
         <v>195</v>
       </c>
@@ -2701,19 +2718,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="99"/>
-      <c r="C25" s="100"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="59"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="93"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="109"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="86"/>
       <c r="P25" s="27" t="s">
         <v>199</v>
       </c>
@@ -2722,19 +2739,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="99"/>
-      <c r="C26" s="100"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="59"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="111"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="93"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="109"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="86"/>
       <c r="P26" s="27" t="s">
         <v>200</v>
       </c>
@@ -2743,19 +2760,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
       <c r="D27" s="59"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="111"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="93"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="109"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="86"/>
       <c r="P27" s="27" t="s">
         <v>201</v>
       </c>
@@ -2764,19 +2781,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="99"/>
-      <c r="C28" s="100"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="59"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="93"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="109"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="86"/>
       <c r="P28" s="27" t="s">
         <v>203</v>
       </c>
@@ -2785,19 +2802,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="101"/>
-      <c r="C29" s="102"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="59"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="114"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="93"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="112"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="86"/>
       <c r="P29" s="27" t="s">
         <v>202</v>
       </c>
@@ -2806,12 +2823,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="86"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="93"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="86"/>
       <c r="P30" s="27" t="s">
         <v>204</v>
       </c>
@@ -2820,12 +2837,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="86"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="93"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="86"/>
       <c r="P31" s="27" t="s">
         <v>205</v>
       </c>
@@ -2834,12 +2851,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="86"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="93"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="86"/>
       <c r="P32" s="27" t="s">
         <v>206</v>
       </c>
@@ -2848,12 +2865,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="86"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="93"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="86"/>
       <c r="P33" s="27" t="s">
         <v>207</v>
       </c>
@@ -2862,12 +2879,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="86"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="93"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="86"/>
       <c r="P34" s="27" t="s">
         <v>208</v>
       </c>
@@ -2876,12 +2893,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="86"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="93"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="86"/>
       <c r="P35" s="27" t="s">
         <v>209</v>
       </c>
@@ -2890,12 +2907,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="86"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="93"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="86"/>
       <c r="P36" s="27" t="s">
         <v>218</v>
       </c>
@@ -2904,12 +2921,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="86"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="93"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="86"/>
       <c r="P37" s="27" t="s">
         <v>219</v>
       </c>
@@ -2918,12 +2935,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="89"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="93"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="86"/>
       <c r="P38" s="27" t="s">
         <v>220</v>
       </c>
@@ -2941,6 +2958,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:L22"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J23:N38"/>
     <mergeCell ref="O3:O38"/>
     <mergeCell ref="B18:C18"/>
@@ -2956,21 +2988,6 @@
     <mergeCell ref="B22:C29"/>
     <mergeCell ref="E22:E29"/>
     <mergeCell ref="F22:H29"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:L22"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2982,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,118 +3019,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="96"/>
-      <c r="B1" s="96"/>
-      <c r="C1" s="72" t="s">
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72" t="s">
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72" t="s">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72" t="s">
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="116" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116" t="s">
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116" t="s">
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="72" t="s">
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72" t="s">
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="117" t="s">
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="116" t="s">
+      <c r="S2" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="72" t="s">
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="94" t="s">
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="72" t="s">
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72" t="s">
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72" t="s">
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3167,8 +3184,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="117"/>
-      <c r="S3" s="115"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="121"/>
       <c r="T3" s="16" t="s">
         <v>59</v>
       </c>
@@ -3234,106 +3251,106 @@
       <c r="C4" s="16">
         <v>0</v>
       </c>
-      <c r="D4" s="70">
-        <v>0</v>
-      </c>
-      <c r="E4" s="70">
-        <v>0</v>
-      </c>
-      <c r="F4" s="70">
-        <v>0</v>
-      </c>
-      <c r="G4" s="70">
-        <v>0</v>
-      </c>
-      <c r="H4" s="70">
-        <v>0</v>
-      </c>
-      <c r="I4" s="70">
-        <v>0</v>
-      </c>
-      <c r="J4" s="70">
-        <v>0</v>
-      </c>
-      <c r="K4" s="70">
-        <v>0</v>
-      </c>
-      <c r="L4" s="70">
-        <v>0</v>
-      </c>
-      <c r="M4" s="70">
-        <v>0</v>
-      </c>
-      <c r="N4" s="70">
-        <v>0</v>
-      </c>
-      <c r="O4" s="70">
-        <v>0</v>
-      </c>
-      <c r="P4" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="70">
-        <v>0</v>
-      </c>
-      <c r="R4" s="70">
-        <v>0</v>
-      </c>
-      <c r="S4" s="70">
-        <v>0</v>
-      </c>
-      <c r="T4" s="70">
-        <v>0</v>
-      </c>
-      <c r="U4" s="70">
-        <v>0</v>
-      </c>
-      <c r="V4" s="70">
-        <v>0</v>
-      </c>
-      <c r="W4" s="70">
-        <v>0</v>
-      </c>
-      <c r="X4" s="70">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="70">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="70">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="70">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="70">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="70">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="70">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="70">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="70">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="70">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="70">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="70">
+      <c r="D4" s="69">
+        <v>0</v>
+      </c>
+      <c r="E4" s="69">
+        <v>0</v>
+      </c>
+      <c r="F4" s="69">
+        <v>0</v>
+      </c>
+      <c r="G4" s="69">
+        <v>0</v>
+      </c>
+      <c r="H4" s="69">
+        <v>0</v>
+      </c>
+      <c r="I4" s="69">
+        <v>0</v>
+      </c>
+      <c r="J4" s="69">
+        <v>0</v>
+      </c>
+      <c r="K4" s="69">
+        <v>0</v>
+      </c>
+      <c r="L4" s="69">
+        <v>0</v>
+      </c>
+      <c r="M4" s="69">
+        <v>0</v>
+      </c>
+      <c r="N4" s="69">
+        <v>0</v>
+      </c>
+      <c r="O4" s="69">
+        <v>0</v>
+      </c>
+      <c r="P4" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="69">
+        <v>0</v>
+      </c>
+      <c r="R4" s="69">
+        <v>0</v>
+      </c>
+      <c r="S4" s="69">
+        <v>0</v>
+      </c>
+      <c r="T4" s="69">
+        <v>0</v>
+      </c>
+      <c r="U4" s="69">
+        <v>0</v>
+      </c>
+      <c r="V4" s="69">
+        <v>0</v>
+      </c>
+      <c r="W4" s="69">
+        <v>0</v>
+      </c>
+      <c r="X4" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="69">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="69">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="69">
         <v>0</v>
       </c>
     </row>
@@ -3344,109 +3361,109 @@
       <c r="B5" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="70">
-        <v>0</v>
-      </c>
-      <c r="D5" s="70">
+      <c r="C5" s="69">
+        <v>0</v>
+      </c>
+      <c r="D5" s="69">
         <v>0.54500000000000004</v>
       </c>
-      <c r="E5" s="70">
-        <v>0</v>
-      </c>
-      <c r="F5" s="70">
-        <v>0</v>
-      </c>
-      <c r="G5" s="70">
-        <v>0</v>
-      </c>
-      <c r="H5" s="70">
-        <v>0</v>
-      </c>
-      <c r="I5" s="70">
-        <v>0</v>
-      </c>
-      <c r="J5" s="70">
-        <v>0</v>
-      </c>
-      <c r="K5" s="70">
-        <v>0</v>
-      </c>
-      <c r="L5" s="70">
-        <v>0</v>
-      </c>
-      <c r="M5" s="70">
-        <v>0</v>
-      </c>
-      <c r="N5" s="70">
-        <v>0</v>
-      </c>
-      <c r="O5" s="70">
-        <v>0</v>
-      </c>
-      <c r="P5" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="70">
-        <v>0</v>
-      </c>
-      <c r="R5" s="70">
-        <v>0</v>
-      </c>
-      <c r="S5" s="70">
-        <v>1.0367</v>
-      </c>
-      <c r="T5" s="70">
-        <v>0.1</v>
-      </c>
-      <c r="U5" s="70">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="V5" s="70">
-        <v>1.28019E-4</v>
-      </c>
-      <c r="W5" s="70">
-        <v>0</v>
-      </c>
-      <c r="X5" s="70">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="70">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="70">
+      <c r="E5" s="69">
+        <v>0</v>
+      </c>
+      <c r="F5" s="69">
+        <v>0</v>
+      </c>
+      <c r="G5" s="69">
+        <v>0</v>
+      </c>
+      <c r="H5" s="69">
+        <v>0</v>
+      </c>
+      <c r="I5" s="69">
+        <v>0</v>
+      </c>
+      <c r="J5" s="69">
+        <v>0</v>
+      </c>
+      <c r="K5" s="69">
+        <v>0</v>
+      </c>
+      <c r="L5" s="74">
+        <v>-1.5595000000000001</v>
+      </c>
+      <c r="M5" s="74">
+        <v>-1.5706</v>
+      </c>
+      <c r="N5" s="74">
+        <v>0</v>
+      </c>
+      <c r="O5" s="69">
+        <v>0</v>
+      </c>
+      <c r="P5" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="73">
+        <v>0</v>
+      </c>
+      <c r="R5" s="73">
+        <v>0</v>
+      </c>
+      <c r="S5" s="69">
+        <v>1.028</v>
+      </c>
+      <c r="T5" s="71">
+        <v>9.8350000000000007E-2</v>
+      </c>
+      <c r="U5" s="71">
+        <v>1.2763999999999999E-4</v>
+      </c>
+      <c r="V5" s="71">
+        <v>9.8429000000000003E-2</v>
+      </c>
+      <c r="W5" s="69">
+        <v>0</v>
+      </c>
+      <c r="X5" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="69">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69">
         <v>6.2831999999999999</v>
       </c>
-      <c r="AB5" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="70">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="70">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="70">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="70">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="70">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="70">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="70">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="70">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="70">
+      <c r="AB5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="69">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="69">
         <v>0</v>
       </c>
     </row>
@@ -3457,109 +3474,109 @@
       <c r="B6" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="70">
-        <v>0</v>
-      </c>
-      <c r="D6" s="70">
+      <c r="C6" s="69">
+        <v>0</v>
+      </c>
+      <c r="D6" s="69">
         <v>0.5</v>
       </c>
-      <c r="E6" s="70">
-        <v>0</v>
-      </c>
-      <c r="F6" s="70">
-        <v>0</v>
-      </c>
-      <c r="G6" s="70">
-        <v>0</v>
-      </c>
-      <c r="H6" s="70">
-        <v>0</v>
-      </c>
-      <c r="I6" s="70">
-        <v>0</v>
-      </c>
-      <c r="J6" s="70">
-        <v>0</v>
-      </c>
-      <c r="K6" s="70">
-        <v>0</v>
-      </c>
-      <c r="L6" s="70">
-        <v>0</v>
-      </c>
-      <c r="M6" s="70">
-        <v>0</v>
-      </c>
-      <c r="N6" s="70">
-        <v>0</v>
-      </c>
-      <c r="O6" s="70">
-        <v>0</v>
-      </c>
-      <c r="P6" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="70">
-        <v>0</v>
-      </c>
-      <c r="R6" s="70">
-        <v>0</v>
-      </c>
-      <c r="S6" s="70">
+      <c r="E6" s="69">
+        <v>0</v>
+      </c>
+      <c r="F6" s="69">
+        <v>0</v>
+      </c>
+      <c r="G6" s="69">
+        <v>0</v>
+      </c>
+      <c r="H6" s="69">
+        <v>0</v>
+      </c>
+      <c r="I6" s="69">
+        <v>0</v>
+      </c>
+      <c r="J6" s="69">
+        <v>0</v>
+      </c>
+      <c r="K6" s="69">
+        <v>0</v>
+      </c>
+      <c r="L6" s="74">
+        <v>1.5707</v>
+      </c>
+      <c r="M6" s="74">
+        <v>0</v>
+      </c>
+      <c r="N6" s="74">
+        <v>1.5707</v>
+      </c>
+      <c r="O6" s="69">
+        <v>0</v>
+      </c>
+      <c r="P6" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="75">
+        <v>0</v>
+      </c>
+      <c r="R6" s="75">
+        <v>0</v>
+      </c>
+      <c r="S6" s="69">
         <v>2.9049999999999998</v>
       </c>
-      <c r="T6" s="70">
+      <c r="T6" s="71">
+        <v>4.9189999999999998E-3</v>
+      </c>
+      <c r="U6" s="71">
         <v>4.9950000000000003E-3</v>
       </c>
-      <c r="U6" s="70">
+      <c r="V6" s="71">
         <v>4.9189999999999998E-3</v>
       </c>
-      <c r="V6" s="70">
-        <v>4.9189999999999998E-3</v>
-      </c>
-      <c r="W6" s="70">
-        <v>0</v>
-      </c>
-      <c r="X6" s="70">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="70">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="70">
+      <c r="W6" s="69">
+        <v>0</v>
+      </c>
+      <c r="X6" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="69">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="72">
         <v>6.2831999999999999</v>
       </c>
-      <c r="AB6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="70">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="70">
+      <c r="AB6" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="69">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="69">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="69">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="69">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="69">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="69">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="69">
         <v>0</v>
       </c>
     </row>
@@ -3570,109 +3587,109 @@
       <c r="B7" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="69">
         <v>-0.83799999999999997</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="69">
         <v>0.51700000000000002</v>
       </c>
-      <c r="E7" s="70">
-        <v>0</v>
-      </c>
-      <c r="F7" s="70">
-        <v>0</v>
-      </c>
-      <c r="G7" s="70">
-        <v>0</v>
-      </c>
-      <c r="H7" s="70">
-        <v>0</v>
-      </c>
-      <c r="I7" s="70">
-        <v>0</v>
-      </c>
-      <c r="J7" s="70">
-        <v>0</v>
-      </c>
-      <c r="K7" s="70">
-        <v>0</v>
-      </c>
-      <c r="L7" s="70">
-        <v>0</v>
-      </c>
-      <c r="M7" s="70">
-        <v>0</v>
-      </c>
-      <c r="N7" s="70">
-        <v>0</v>
-      </c>
-      <c r="O7" s="70">
-        <v>0</v>
-      </c>
-      <c r="P7" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="70">
-        <v>1</v>
-      </c>
-      <c r="R7" s="70">
-        <v>0.54918999999999996</v>
-      </c>
-      <c r="S7" s="70">
-        <v>6.2439999999999998</v>
-      </c>
-      <c r="T7" s="70">
+      <c r="E7" s="69">
+        <v>0</v>
+      </c>
+      <c r="F7" s="69">
+        <v>0</v>
+      </c>
+      <c r="G7" s="69">
+        <v>0</v>
+      </c>
+      <c r="H7" s="69">
+        <v>0</v>
+      </c>
+      <c r="I7" s="69">
+        <v>0</v>
+      </c>
+      <c r="J7" s="69">
+        <v>0</v>
+      </c>
+      <c r="K7" s="69">
+        <v>0</v>
+      </c>
+      <c r="L7" s="74">
+        <v>1.5707</v>
+      </c>
+      <c r="M7" s="74">
+        <v>0</v>
+      </c>
+      <c r="N7" s="74">
+        <v>2.1198999999999999</v>
+      </c>
+      <c r="O7" s="69">
+        <v>0</v>
+      </c>
+      <c r="P7" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="75">
+        <v>0</v>
+      </c>
+      <c r="R7" s="75">
+        <v>0</v>
+      </c>
+      <c r="S7" s="69">
+        <v>6.1734999999999998</v>
+      </c>
+      <c r="T7" s="71">
+        <v>1.1975E-2</v>
+      </c>
+      <c r="U7" s="71">
         <v>0.29049999999999998</v>
       </c>
-      <c r="U7" s="70">
+      <c r="V7" s="71">
         <v>0.29049999999999998</v>
       </c>
-      <c r="V7" s="70">
-        <v>1.1975E-2</v>
-      </c>
-      <c r="W7" s="70">
-        <v>0</v>
-      </c>
-      <c r="X7" s="70">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="70">
-        <v>5.2689000000000004</v>
-      </c>
-      <c r="Z7" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="70">
+      <c r="W7" s="69">
+        <v>0</v>
+      </c>
+      <c r="X7" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="69">
+        <v>5.2666000000000004</v>
+      </c>
+      <c r="Z7" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="72">
         <v>6.2831999999999999</v>
       </c>
-      <c r="AB7" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="70">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="70">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="70">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="70">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="70">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="70">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="70">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="70">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="70">
+      <c r="AB7" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="69">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="69">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="69">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="69">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="69">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="69">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="69">
         <v>0</v>
       </c>
     </row>
@@ -3683,109 +3700,109 @@
       <c r="B8" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="69">
         <v>0.83799999999999997</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="69">
         <v>0.51700000000000002</v>
       </c>
-      <c r="E8" s="70">
-        <v>0</v>
-      </c>
-      <c r="F8" s="70">
-        <v>0</v>
-      </c>
-      <c r="G8" s="70">
-        <v>0</v>
-      </c>
-      <c r="H8" s="70">
-        <v>0</v>
-      </c>
-      <c r="I8" s="70">
-        <v>0</v>
-      </c>
-      <c r="J8" s="70">
-        <v>0</v>
-      </c>
-      <c r="K8" s="70">
-        <v>0</v>
-      </c>
-      <c r="L8" s="70">
-        <v>0</v>
-      </c>
-      <c r="M8" s="70">
-        <v>0</v>
-      </c>
-      <c r="N8" s="70">
-        <v>0</v>
-      </c>
-      <c r="O8" s="70">
-        <v>0</v>
-      </c>
-      <c r="P8" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="70">
-        <v>-1</v>
-      </c>
-      <c r="R8" s="70">
-        <v>0.54918999999999996</v>
+      <c r="E8" s="69">
+        <v>0</v>
+      </c>
+      <c r="F8" s="69">
+        <v>0</v>
+      </c>
+      <c r="G8" s="69">
+        <v>0</v>
+      </c>
+      <c r="H8" s="69">
+        <v>0</v>
+      </c>
+      <c r="I8" s="69">
+        <v>0</v>
+      </c>
+      <c r="J8" s="69">
+        <v>0</v>
+      </c>
+      <c r="K8" s="69">
+        <v>0</v>
+      </c>
+      <c r="L8" s="74">
+        <v>1.5707</v>
+      </c>
+      <c r="M8" s="74">
+        <v>0</v>
+      </c>
+      <c r="N8" s="74">
+        <v>1.0216000000000001</v>
+      </c>
+      <c r="O8" s="69">
+        <v>0</v>
+      </c>
+      <c r="P8" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="75">
+        <v>0</v>
+      </c>
+      <c r="R8" s="75">
+        <v>0</v>
       </c>
       <c r="S8" s="70">
-        <v>6.2439999999999998</v>
-      </c>
-      <c r="T8" s="70">
+        <v>6.1734999999999998</v>
+      </c>
+      <c r="T8" s="71">
+        <v>1.1975E-2</v>
+      </c>
+      <c r="U8" s="71">
         <v>0.29049999999999998</v>
       </c>
-      <c r="U8" s="70">
+      <c r="V8" s="71">
         <v>0.29049999999999998</v>
       </c>
-      <c r="V8" s="70">
-        <v>1.1975E-2</v>
-      </c>
-      <c r="W8" s="70">
-        <v>0</v>
-      </c>
-      <c r="X8" s="70">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="70">
-        <v>-5.2689000000000004</v>
-      </c>
-      <c r="Z8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="70">
+      <c r="W8" s="69">
+        <v>0</v>
+      </c>
+      <c r="X8" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="69">
+        <v>-5.2666000000000004</v>
+      </c>
+      <c r="Z8" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="72">
         <v>6.2831999999999999</v>
       </c>
-      <c r="AB8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="70">
+      <c r="AB8" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="69">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="69">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="69">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="69">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="69">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="69">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="69">
         <v>0</v>
       </c>
     </row>
@@ -3860,7 +3877,6 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="T12" s="61"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -3876,7 +3892,6 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="U13" s="61"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -6832,12 +6847,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6851,6 +6860,12 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6861,8 +6876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6883,16 +6898,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6923,11 +6938,11 @@
       <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6983,19 +6998,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7020,16 +7035,16 @@
       <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="122" t="s">
+      <c r="G6" s="131"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="123"/>
-      <c r="K6" s="124"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -7065,22 +7080,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7105,21 +7120,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121" t="s">
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121" t="s">
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124" t="s">
         <v>246</v>
       </c>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7173,19 +7188,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7210,16 +7225,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121" t="s">
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7286,7 +7301,7 @@
       <c r="E15" s="13">
         <v>4</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="62">
         <v>-0.05</v>
       </c>
       <c r="G15" s="13">
@@ -7295,14 +7310,14 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="61">
         <v>-0.05</v>
       </c>
       <c r="J15" s="17">
         <v>1</v>
       </c>
       <c r="K15" s="17">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -7321,7 +7336,7 @@
       <c r="E16" s="41">
         <v>5</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="62">
         <v>0.05</v>
       </c>
       <c r="G16" s="41">
@@ -7330,14 +7345,14 @@
       <c r="H16" s="41">
         <v>0</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="61">
         <v>0.05</v>
       </c>
       <c r="J16" s="17">
         <v>1</v>
       </c>
       <c r="K16" s="17">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -7361,19 +7376,19 @@
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -7398,16 +7413,16 @@
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="120" t="s">
+      <c r="F19" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121" t="s">
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
     </row>
     <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -7444,19 +7459,19 @@
       <c r="X21" s="10"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
@@ -7481,16 +7496,16 @@
       <c r="E23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="120" t="s">
+      <c r="F23" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121" t="s">
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
     </row>
     <row r="24" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
@@ -7518,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="17">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
       <c r="K24" s="17">
         <v>0</v>
@@ -7526,22 +7541,22 @@
     </row>
     <row r="25" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
     </row>
     <row r="27" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
@@ -7559,44 +7574,44 @@
       <c r="E27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="120" t="s">
+      <c r="F27" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="121" t="s">
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121" t="s">
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
     </row>
     <row r="28" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="125"/>
     </row>
     <row r="31" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
@@ -7614,26 +7629,26 @@
       <c r="E31" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="122" t="s">
+      <c r="F31" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="123"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="122" t="s">
+      <c r="G31" s="131"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="123"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="121" t="s">
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="M31" s="121"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="121" t="s">
+      <c r="M31" s="124"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
+      <c r="P31" s="124"/>
+      <c r="Q31" s="124"/>
     </row>
     <row r="32" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
@@ -7668,14 +7683,14 @@
       <c r="R33"/>
     </row>
     <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="119" t="s">
+      <c r="A34" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
       <c r="G34" s="11"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
@@ -7752,12 +7767,12 @@
       <c r="X37" s="10"/>
     </row>
     <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="119" t="s">
+      <c r="A38" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -7823,15 +7838,15 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="125" t="s">
+      <c r="A42" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="127"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="129"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
@@ -7846,11 +7861,11 @@
       <c r="D43" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="121" t="s">
+      <c r="E43" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
     </row>
     <row r="44" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
@@ -8021,6 +8036,21 @@
     <row r="65" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="F23:H23"/>
@@ -8037,21 +8067,6 @@
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="L31:N31"/>
     <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -8089,44 +8104,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134" t="s">
         <v>254</v>
       </c>
-      <c r="K1" s="129"/>
+      <c r="K1" s="134"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="64" t="s">
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="63" t="s">
         <v>251</v>
       </c>
       <c r="J2" s="24" t="s">
@@ -8172,8 +8187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8198,113 +8213,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="132" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="135" t="s">
         <v>244</v>
       </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="134"/>
-      <c r="AB2" s="135" t="s">
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="137"/>
+      <c r="AB2" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="137"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="150"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="151"/>
     </row>
     <row r="3" spans="1:33" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="151"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="148" t="s">
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="149"/>
-      <c r="K3" s="150"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="140"/>
       <c r="L3" s="58" t="s">
         <v>239</v>
       </c>
       <c r="M3" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="O3" s="66" t="s">
+      <c r="O3" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="66" t="s">
+      <c r="P3" s="65" t="s">
         <v>111</v>
       </c>
       <c r="Q3" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="152" t="s">
+      <c r="R3" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="152"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="139"/>
-      <c r="AG3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="153"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="154"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
@@ -8326,7 +8341,7 @@
       <c r="H4" s="41">
         <v>0</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="62">
         <v>-0.05</v>
       </c>
       <c r="J4" s="41">
@@ -8335,21 +8350,23 @@
       <c r="K4" s="41">
         <v>0</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="62">
-        <v>80</v>
+      <c r="L4" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="61">
+        <v>800000</v>
       </c>
       <c r="N4" s="35"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="AB4" s="138"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="139"/>
-      <c r="AE4" s="139"/>
-      <c r="AF4" s="139"/>
-      <c r="AG4" s="140"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="153"/>
+      <c r="AD4" s="153"/>
+      <c r="AE4" s="153"/>
+      <c r="AF4" s="153"/>
+      <c r="AG4" s="154"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
@@ -8372,7 +8389,7 @@
       <c r="H5" s="41">
         <v>0</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="62">
         <v>0.05</v>
       </c>
       <c r="J5" s="41">
@@ -8381,9 +8398,11 @@
       <c r="K5" s="41">
         <v>0</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="62">
-        <v>80</v>
+      <c r="L5" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="61">
+        <v>800000</v>
       </c>
       <c r="N5" s="41"/>
       <c r="O5" s="41"/>
@@ -8391,103 +8410,103 @@
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
       <c r="S5" s="41"/>
-      <c r="AB5" s="138"/>
-      <c r="AC5" s="139"/>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="139"/>
-      <c r="AF5" s="139"/>
-      <c r="AG5" s="140"/>
+      <c r="AB5" s="152"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="153"/>
+      <c r="AG5" s="154"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="138"/>
-      <c r="AC6" s="139"/>
-      <c r="AD6" s="139"/>
-      <c r="AE6" s="139"/>
-      <c r="AF6" s="139"/>
-      <c r="AG6" s="140"/>
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="153"/>
+      <c r="AD6" s="153"/>
+      <c r="AE6" s="153"/>
+      <c r="AF6" s="153"/>
+      <c r="AG6" s="154"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="139"/>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="139"/>
-      <c r="AG7" s="140"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="153"/>
+      <c r="AD7" s="153"/>
+      <c r="AE7" s="153"/>
+      <c r="AF7" s="153"/>
+      <c r="AG7" s="154"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="119"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="153" t="s">
+      <c r="A8" s="125"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="148" t="s">
         <v>243</v>
       </c>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="AB8" s="138"/>
-      <c r="AC8" s="139"/>
-      <c r="AD8" s="139"/>
-      <c r="AE8" s="139"/>
-      <c r="AF8" s="139"/>
-      <c r="AG8" s="140"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="148"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="153"/>
+      <c r="AE8" s="153"/>
+      <c r="AF8" s="153"/>
+      <c r="AG8" s="154"/>
     </row>
     <row r="9" spans="1:33" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="151"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="148" t="s">
+      <c r="G9" s="145"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="149"/>
-      <c r="K9" s="150"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="140"/>
       <c r="L9" s="34" t="s">
         <v>108</v>
       </c>
@@ -8503,16 +8522,16 @@
       <c r="P9" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="130" t="s">
+      <c r="Q9" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="131"/>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="139"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="139"/>
-      <c r="AG9" s="140"/>
+      <c r="R9" s="146"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="153"/>
+      <c r="AD9" s="153"/>
+      <c r="AE9" s="153"/>
+      <c r="AF9" s="153"/>
+      <c r="AG9" s="154"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
@@ -8535,7 +8554,7 @@
       <c r="H10" s="41">
         <v>0</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="62">
         <v>-0.05</v>
       </c>
       <c r="J10" s="41">
@@ -8544,16 +8563,16 @@
       <c r="K10" s="41">
         <v>0</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="62">
         <v>40000</v>
       </c>
       <c r="M10" s="23"/>
-      <c r="AB10" s="138"/>
-      <c r="AC10" s="139"/>
-      <c r="AD10" s="139"/>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="139"/>
-      <c r="AG10" s="140"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="153"/>
+      <c r="AF10" s="153"/>
+      <c r="AG10" s="154"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
@@ -8576,7 +8595,7 @@
       <c r="H11" s="41">
         <v>0</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="62">
         <v>0.05</v>
       </c>
       <c r="J11" s="41">
@@ -8585,90 +8604,90 @@
       <c r="K11" s="41">
         <v>0</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="62">
         <v>40000</v>
       </c>
-      <c r="AB11" s="138"/>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="139"/>
-      <c r="AF11" s="139"/>
-      <c r="AG11" s="140"/>
+      <c r="AB11" s="152"/>
+      <c r="AC11" s="153"/>
+      <c r="AD11" s="153"/>
+      <c r="AE11" s="153"/>
+      <c r="AF11" s="153"/>
+      <c r="AG11" s="154"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="41"/>
-      <c r="AB12" s="138"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="140"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="153"/>
+      <c r="AD12" s="153"/>
+      <c r="AE12" s="153"/>
+      <c r="AF12" s="153"/>
+      <c r="AG12" s="154"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="129"/>
-      <c r="Q13" s="129"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129"/>
-      <c r="U13" s="129"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="129"/>
-      <c r="X13" s="129"/>
-      <c r="Y13" s="129"/>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="142"/>
-      <c r="AD13" s="142"/>
-      <c r="AE13" s="142"/>
-      <c r="AF13" s="142"/>
-      <c r="AG13" s="143"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="AB13" s="155"/>
+      <c r="AC13" s="156"/>
+      <c r="AD13" s="156"/>
+      <c r="AE13" s="156"/>
+      <c r="AF13" s="156"/>
+      <c r="AG13" s="157"/>
     </row>
     <row r="14" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="125"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="132" t="s">
+      <c r="A14" s="127"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="135" t="s">
         <v>245</v>
       </c>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="134"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="136"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
     </row>
     <row r="15" spans="1:33" s="29" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
@@ -8686,48 +8705,48 @@
       <c r="E15" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="147" t="s">
+      <c r="F15" s="158" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="148" t="s">
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="138" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="149"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="144" t="s">
+      <c r="J15" s="139"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="141" t="s">
         <v>249</v>
       </c>
-      <c r="M15" s="145"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="144" t="s">
+      <c r="M15" s="142"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="141" t="s">
         <v>250</v>
       </c>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="146"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="143"/>
       <c r="R15" s="34" t="s">
         <v>71</v>
       </c>
       <c r="S15" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="T15" s="66" t="s">
+      <c r="T15" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="U15" s="66" t="s">
+      <c r="U15" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="V15" s="66" t="s">
+      <c r="V15" s="65" t="s">
         <v>111</v>
       </c>
       <c r="W15" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="X15" s="130" t="s">
+      <c r="X15" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="Y15" s="131"/>
+      <c r="Y15" s="146"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
@@ -8774,89 +8793,89 @@
       <c r="T17" s="32"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="129"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="132" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="135" t="s">
         <v>244</v>
       </c>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="134"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="137"/>
     </row>
     <row r="20" spans="1:20" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="147" t="s">
+      <c r="F20" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="144" t="s">
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="145"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="66" t="s">
+      <c r="J20" s="142"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="66" t="s">
+      <c r="M20" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="N20" s="66" t="s">
+      <c r="N20" s="65" t="s">
         <v>111</v>
       </c>
       <c r="O20" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="130" t="s">
+      <c r="P20" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="Q20" s="131"/>
+      <c r="Q20" s="146"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
@@ -8902,6 +8921,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="AB2:AG13"/>
+    <mergeCell ref="A13:Y13"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I20:K20"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:S2"/>
@@ -8916,18 +8947,6 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="A7:R7"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="AB2:AG13"/>
-    <mergeCell ref="A13:Y13"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="A14:S14"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8950,21 +8969,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="125" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="F1" s="75" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="F1" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="I1" s="75" t="s">
+      <c r="G1" s="116"/>
+      <c r="I1" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="77"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
@@ -8982,12 +9001,12 @@
       <c r="G2" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="154" t="s">
+      <c r="I2" s="159" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
@@ -8999,10 +9018,10 @@
       <c r="G3" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
@@ -9014,10 +9033,10 @@
       <c r="G4" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
@@ -9029,10 +9048,10 @@
       <c r="G5" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
@@ -9044,10 +9063,10 @@
       <c r="G6" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>

--- a/mbs-EP-v.1.0.6 - eq mot/Excel Files/flyball_governor/flyball_governor_si.xlsx
+++ b/mbs-EP-v.1.0.6 - eq mot/Excel Files/flyball_governor/flyball_governor_si.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.6 - eq mot\Excel Files\flyball_governor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B04AA9-EB59-4466-9BDA-5FE65E7585F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C2A271-8A96-4DFF-9260-AC58FA45C536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="4215" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -1131,7 +1131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1330,6 +1330,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1369,21 +1414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1414,73 +1444,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1492,21 +1483,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1516,6 +1504,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1525,58 +1552,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2016,7 +1998,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,44 +2017,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116"/>
-      <c r="J2" s="113" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="J2" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="91"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="45">
         <v>5</v>
       </c>
       <c r="E3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="92" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="85"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="100"/>
       <c r="P3" s="39" t="s">
         <v>153</v>
       </c>
@@ -2081,12 +2063,12 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="45">
-        <v>1E-3</v>
+      <c r="C4" s="82"/>
+      <c r="D4" s="78">
+        <v>1E-4</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>22</v>
@@ -2097,14 +2079,14 @@
       <c r="K4" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="118"/>
+      <c r="L4" s="89"/>
       <c r="M4" s="38" t="s">
         <v>124</v>
       </c>
       <c r="N4" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="O4" s="86"/>
+      <c r="O4" s="101"/>
       <c r="P4" s="39" t="s">
         <v>154</v>
       </c>
@@ -2113,10 +2095,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="45" t="s">
         <v>79</v>
       </c>
@@ -2129,14 +2111,14 @@
       <c r="K5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="118"/>
+      <c r="L5" s="89"/>
       <c r="M5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="86"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="39" t="s">
         <v>155</v>
       </c>
@@ -2145,10 +2127,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="45" t="s">
         <v>3</v>
       </c>
@@ -2161,14 +2143,14 @@
       <c r="K6" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="118"/>
+      <c r="L6" s="89"/>
       <c r="M6" s="39" t="s">
         <v>126</v>
       </c>
       <c r="N6" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="O6" s="86"/>
+      <c r="O6" s="101"/>
       <c r="P6" s="39" t="s">
         <v>159</v>
       </c>
@@ -2177,12 +2159,12 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="45">
-        <v>-9.81</v>
+        <v>-9.8066499999999994</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>103</v>
@@ -2193,14 +2175,14 @@
       <c r="K7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="118"/>
+      <c r="L7" s="89"/>
       <c r="M7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="86"/>
+      <c r="O7" s="101"/>
       <c r="P7" s="39" t="s">
         <v>158</v>
       </c>
@@ -2209,10 +2191,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="45" t="s">
         <v>255</v>
       </c>
@@ -2225,14 +2207,14 @@
       <c r="K8" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="118"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="39" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="86"/>
+      <c r="O8" s="101"/>
       <c r="P8" s="39" t="s">
         <v>162</v>
       </c>
@@ -2241,10 +2223,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="45"/>
       <c r="E9" s="46" t="s">
         <v>117</v>
@@ -2255,14 +2237,14 @@
       <c r="K9" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="118"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="39" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="86"/>
+      <c r="O9" s="101"/>
       <c r="P9" s="39" t="s">
         <v>163</v>
       </c>
@@ -2277,14 +2259,14 @@
       <c r="K10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="118"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="39" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="86"/>
+      <c r="O10" s="101"/>
       <c r="P10" s="44" t="s">
         <v>164</v>
       </c>
@@ -2295,14 +2277,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="48"/>
       <c r="K11" s="49"/>
-      <c r="L11" s="118"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="39" t="s">
         <v>128</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="O11" s="86"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="44" t="s">
         <v>165</v>
       </c>
@@ -2311,25 +2293,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
       <c r="J12" s="50"/>
       <c r="K12" s="51"/>
-      <c r="L12" s="118"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="39" t="s">
         <v>129</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="O12" s="86"/>
+      <c r="O12" s="101"/>
       <c r="P12" s="39" t="s">
         <v>170</v>
       </c>
@@ -2338,29 +2320,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="89"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E13" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
       <c r="J13" s="50"/>
       <c r="K13" s="51"/>
-      <c r="L13" s="118"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="39" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="86"/>
+      <c r="O13" s="101"/>
       <c r="P13" s="44" t="s">
         <v>171</v>
       </c>
@@ -2369,29 +2351,29 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
       <c r="J14" s="52"/>
       <c r="K14" s="53"/>
-      <c r="L14" s="118"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="39" t="s">
         <v>130</v>
       </c>
       <c r="N14" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="O14" s="86"/>
+      <c r="O14" s="101"/>
       <c r="P14" s="44" t="s">
         <v>172</v>
       </c>
@@ -2400,31 +2382,31 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E15" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="J15" s="92" t="s">
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="J15" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="118"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="89"/>
       <c r="M15" s="39" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="86"/>
+      <c r="O15" s="101"/>
       <c r="P15" s="44" t="s">
         <v>173</v>
       </c>
@@ -2433,33 +2415,33 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="89"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
       <c r="J16" s="39" t="s">
         <v>90</v>
       </c>
       <c r="K16" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="118"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="39" t="s">
         <v>131</v>
       </c>
       <c r="N16" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="O16" s="86"/>
+      <c r="O16" s="101"/>
       <c r="P16" s="39" t="s">
         <v>178</v>
       </c>
@@ -2468,31 +2450,31 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
       <c r="J17" s="39" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="118"/>
-      <c r="M17" s="92" t="s">
+      <c r="L17" s="89"/>
+      <c r="M17" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="N17" s="93"/>
-      <c r="O17" s="86"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="101"/>
       <c r="P17" s="44" t="s">
         <v>179</v>
       </c>
@@ -2501,33 +2483,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="88"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="59" t="s">
         <v>231</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
       <c r="J18" s="39" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="118"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="47" t="s">
         <v>152</v>
       </c>
       <c r="N18" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="O18" s="86"/>
+      <c r="O18" s="101"/>
       <c r="P18" s="44" t="s">
         <v>180</v>
       </c>
@@ -2536,31 +2518,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="88"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="59"/>
       <c r="E19" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
       <c r="J19" s="39" t="s">
         <v>92</v>
       </c>
       <c r="K19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="118"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="40" t="s">
         <v>144</v>
       </c>
       <c r="N19" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="86"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="44" t="s">
         <v>181</v>
       </c>
@@ -2569,33 +2551,33 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="42" t="s">
         <v>231</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="J20" s="39" t="s">
         <v>98</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="118"/>
+      <c r="L20" s="89"/>
       <c r="M20" s="40" t="s">
         <v>145</v>
       </c>
       <c r="N20" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="86"/>
+      <c r="O20" s="101"/>
       <c r="P20" s="39" t="s">
         <v>186</v>
       </c>
@@ -2604,31 +2586,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="89"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="43"/>
       <c r="E21" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
       <c r="J21" s="39" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="118"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="40" t="s">
         <v>146</v>
       </c>
       <c r="N21" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="O21" s="86"/>
+      <c r="O21" s="101"/>
       <c r="P21" s="44" t="s">
         <v>187</v>
       </c>
@@ -2636,36 +2618,36 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="95" t="s">
+    <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="96"/>
+      <c r="C22" s="106"/>
       <c r="D22" s="59">
         <v>3</v>
       </c>
-      <c r="E22" s="101" t="s">
+      <c r="E22" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="104" t="s">
+      <c r="F22" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="105"/>
-      <c r="H22" s="106"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="77"/>
       <c r="J22" s="27" t="s">
         <v>104</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="119"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="40" t="s">
         <v>147</v>
       </c>
       <c r="N22" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="O22" s="86"/>
+      <c r="O22" s="101"/>
       <c r="P22" s="44" t="s">
         <v>188</v>
       </c>
@@ -2674,21 +2656,21 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="59">
         <v>4</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="86"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="77"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="101"/>
       <c r="P23" s="44" t="s">
         <v>189</v>
       </c>
@@ -2697,19 +2679,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="59"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="86"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="77"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="101"/>
       <c r="P24" s="27" t="s">
         <v>195</v>
       </c>
@@ -2718,19 +2700,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="59"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="109"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="86"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="77"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="101"/>
       <c r="P25" s="27" t="s">
         <v>199</v>
       </c>
@@ -2739,19 +2721,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="59"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="86"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="77"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="101"/>
       <c r="P26" s="27" t="s">
         <v>200</v>
       </c>
@@ -2760,19 +2742,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="59"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="109"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="86"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="77"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="101"/>
       <c r="P27" s="27" t="s">
         <v>201</v>
       </c>
@@ -2781,19 +2763,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="97"/>
-      <c r="C28" s="98"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="59"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="109"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="86"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="77"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="101"/>
       <c r="P28" s="27" t="s">
         <v>203</v>
       </c>
@@ -2802,19 +2784,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="59"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="112"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="86"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="77"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="101"/>
       <c r="P29" s="27" t="s">
         <v>202</v>
       </c>
@@ -2823,12 +2805,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="79"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="86"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="101"/>
       <c r="P30" s="27" t="s">
         <v>204</v>
       </c>
@@ -2837,12 +2819,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="79"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="86"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="101"/>
       <c r="P31" s="27" t="s">
         <v>205</v>
       </c>
@@ -2851,12 +2833,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="79"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="86"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="101"/>
       <c r="P32" s="27" t="s">
         <v>206</v>
       </c>
@@ -2865,12 +2847,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="79"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="86"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="101"/>
       <c r="P33" s="27" t="s">
         <v>207</v>
       </c>
@@ -2879,12 +2861,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="79"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="86"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="101"/>
       <c r="P34" s="27" t="s">
         <v>208</v>
       </c>
@@ -2893,12 +2875,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="79"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="86"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="101"/>
       <c r="P35" s="27" t="s">
         <v>209</v>
       </c>
@@ -2907,12 +2889,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="79"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="86"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="101"/>
       <c r="P36" s="27" t="s">
         <v>218</v>
       </c>
@@ -2921,12 +2903,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="79"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="86"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="101"/>
       <c r="P37" s="27" t="s">
         <v>219</v>
       </c>
@@ -2935,12 +2917,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="82"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="86"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="101"/>
       <c r="P38" s="27" t="s">
         <v>220</v>
       </c>
@@ -2958,6 +2940,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:G29"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2973,21 +2970,6 @@
     <mergeCell ref="L3:L22"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="F13:H21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2999,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12:R13"/>
+    <sheetView topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC16:AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,122 +2997,123 @@
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="20" max="37" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="94"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="89" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89" t="s">
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89" t="s">
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="122" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122" t="s">
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122" t="s">
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="89" t="s">
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89" t="s">
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="123" t="s">
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="122" t="s">
+      <c r="S2" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="89" t="s">
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="87" t="s">
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="120"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="89" t="s">
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89" t="s">
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89" t="s">
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3184,8 +3167,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="123"/>
-      <c r="S3" s="121"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="115"/>
       <c r="T3" s="16" t="s">
         <v>59</v>
       </c>
@@ -3365,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="69">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="E5" s="69">
-        <v>0</v>
+        <v>0.54195000000000004</v>
+      </c>
+      <c r="E5" s="76">
+        <v>4.9714000000000002E-7</v>
       </c>
       <c r="F5" s="69">
         <v>0</v>
@@ -3394,8 +3377,8 @@
       <c r="M5" s="74">
         <v>-1.5706</v>
       </c>
-      <c r="N5" s="74">
-        <v>0</v>
+      <c r="N5" s="71">
+        <v>-1.1205750367E-2</v>
       </c>
       <c r="O5" s="69">
         <v>0</v>
@@ -3433,8 +3416,8 @@
       <c r="Z5" s="69">
         <v>0</v>
       </c>
-      <c r="AA5" s="69">
-        <v>6.2831999999999999</v>
+      <c r="AA5" s="76">
+        <v>-6.2831999999999999</v>
       </c>
       <c r="AB5" s="69">
         <v>0</v>
@@ -3546,8 +3529,8 @@
       <c r="Z6" s="69">
         <v>0</v>
       </c>
-      <c r="AA6" s="72">
-        <v>6.2831999999999999</v>
+      <c r="AA6" s="76">
+        <v>-6.2831999999999999</v>
       </c>
       <c r="AB6" s="69">
         <v>0</v>
@@ -3642,10 +3625,10 @@
         <v>1.1975E-2</v>
       </c>
       <c r="U7" s="71">
-        <v>0.29049999999999998</v>
+        <v>0.29039999999999999</v>
       </c>
       <c r="V7" s="71">
-        <v>0.29049999999999998</v>
+        <v>0.29039999999999999</v>
       </c>
       <c r="W7" s="69">
         <v>0</v>
@@ -3654,13 +3637,13 @@
         <v>0</v>
       </c>
       <c r="Y7" s="69">
-        <v>5.2666000000000004</v>
+        <v>-5.2666000000000004</v>
       </c>
       <c r="Z7" s="69">
         <v>0</v>
       </c>
-      <c r="AA7" s="72">
-        <v>6.2831999999999999</v>
+      <c r="AA7" s="76">
+        <v>-6.2831999999999999</v>
       </c>
       <c r="AB7" s="69">
         <v>0</v>
@@ -3755,10 +3738,10 @@
         <v>1.1975E-2</v>
       </c>
       <c r="U8" s="71">
-        <v>0.29049999999999998</v>
+        <v>0.29039999999999999</v>
       </c>
       <c r="V8" s="71">
-        <v>0.29049999999999998</v>
+        <v>0.29039999999999999</v>
       </c>
       <c r="W8" s="69">
         <v>0</v>
@@ -3767,13 +3750,13 @@
         <v>0</v>
       </c>
       <c r="Y8" s="69">
-        <v>-5.2666000000000004</v>
+        <v>5.2666000000000004</v>
       </c>
       <c r="Z8" s="69">
         <v>0</v>
       </c>
       <c r="AA8" s="72">
-        <v>6.2831999999999999</v>
+        <v>-6.2831999999999999</v>
       </c>
       <c r="AB8" s="69">
         <v>0</v>
@@ -6847,6 +6830,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6860,12 +6849,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6876,8 +6859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N18:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6898,16 +6881,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6938,11 +6921,11 @@
       <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6998,19 +6981,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7035,16 +7018,16 @@
       <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="130" t="s">
+      <c r="F6" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="131"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="130" t="s">
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="123"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -7080,22 +7063,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7120,21 +7103,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="126" t="s">
+      <c r="F9" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="124" t="s">
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124" t="s">
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120" t="s">
         <v>246</v>
       </c>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7188,19 +7171,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7225,16 +7208,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="124" t="s">
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7376,19 +7359,19 @@
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -7413,16 +7396,16 @@
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="126" t="s">
+      <c r="F19" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="124" t="s">
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
     </row>
     <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -7459,19 +7442,19 @@
       <c r="X21" s="10"/>
     </row>
     <row r="22" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="125" t="s">
+      <c r="A22" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
@@ -7496,16 +7479,16 @@
       <c r="E23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="126" t="s">
+      <c r="F23" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="124" t="s">
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
     </row>
     <row r="24" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
@@ -7541,22 +7524,22 @@
     </row>
     <row r="25" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="125" t="s">
+      <c r="A26" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
     </row>
     <row r="27" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
@@ -7574,44 +7557,44 @@
       <c r="E27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="126" t="s">
+      <c r="F27" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="124" t="s">
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124" t="s">
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="M27" s="124"/>
-      <c r="N27" s="124"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
     </row>
     <row r="28" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="125"/>
-      <c r="Q30" s="125"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="118"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="118"/>
     </row>
     <row r="31" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
@@ -7629,26 +7612,26 @@
       <c r="E31" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="130" t="s">
+      <c r="F31" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="131"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="130" t="s">
+      <c r="G31" s="122"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="131"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="124" t="s">
+      <c r="J31" s="122"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="M31" s="124"/>
-      <c r="N31" s="124"/>
-      <c r="O31" s="124" t="s">
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="124"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="120"/>
     </row>
     <row r="32" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
@@ -7683,14 +7666,14 @@
       <c r="R33"/>
     </row>
     <row r="34" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="118"/>
       <c r="G34" s="11"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
@@ -7767,12 +7750,12 @@
       <c r="X37" s="10"/>
     </row>
     <row r="38" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="125" t="s">
+      <c r="A38" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -7838,15 +7821,15 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="127" t="s">
+      <c r="A42" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="129"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="126"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
@@ -7861,11 +7844,11 @@
       <c r="D43" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="124" t="s">
+      <c r="E43" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
     </row>
     <row r="44" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
@@ -8036,21 +8019,6 @@
     <row r="65" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="F23:H23"/>
@@ -8067,6 +8035,21 @@
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="L31:N31"/>
     <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -8104,21 +8087,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128" t="s">
         <v>254</v>
       </c>
-      <c r="K1" s="134"/>
+      <c r="K1" s="128"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
@@ -8136,11 +8119,11 @@
       <c r="E2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="124" t="s">
+      <c r="F2" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="63" t="s">
         <v>251</v>
       </c>
@@ -8187,8 +8170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8213,58 +8196,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="135" t="s">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="137"/>
-      <c r="AB2" s="149" t="s">
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="133"/>
+      <c r="AB2" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="151"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="136"/>
     </row>
     <row r="3" spans="1:33" s="29" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
@@ -8282,16 +8265,16 @@
       <c r="E3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="144" t="s">
+      <c r="F3" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="138" t="s">
+      <c r="G3" s="150"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="139"/>
-      <c r="K3" s="140"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="58" t="s">
         <v>239</v>
       </c>
@@ -8310,16 +8293,16 @@
       <c r="Q3" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="147" t="s">
+      <c r="R3" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="147"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="153"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="153"/>
-      <c r="AG3" s="154"/>
+      <c r="S3" s="151"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="139"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
@@ -8361,12 +8344,12 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="153"/>
-      <c r="AD4" s="153"/>
-      <c r="AE4" s="153"/>
-      <c r="AF4" s="153"/>
-      <c r="AG4" s="154"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="138"/>
+      <c r="AD4" s="138"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="138"/>
+      <c r="AG4" s="139"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
@@ -8410,76 +8393,76 @@
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
       <c r="S5" s="41"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="153"/>
-      <c r="AG5" s="154"/>
+      <c r="AB5" s="137"/>
+      <c r="AC5" s="138"/>
+      <c r="AD5" s="138"/>
+      <c r="AE5" s="138"/>
+      <c r="AF5" s="138"/>
+      <c r="AG5" s="139"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="152"/>
-      <c r="AC6" s="153"/>
-      <c r="AD6" s="153"/>
-      <c r="AE6" s="153"/>
-      <c r="AF6" s="153"/>
-      <c r="AG6" s="154"/>
+      <c r="AB6" s="137"/>
+      <c r="AC6" s="138"/>
+      <c r="AD6" s="138"/>
+      <c r="AE6" s="138"/>
+      <c r="AF6" s="138"/>
+      <c r="AG6" s="139"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
-      <c r="AB7" s="152"/>
-      <c r="AC7" s="153"/>
-      <c r="AD7" s="153"/>
-      <c r="AE7" s="153"/>
-      <c r="AF7" s="153"/>
-      <c r="AG7" s="154"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="AB7" s="137"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="138"/>
+      <c r="AE7" s="138"/>
+      <c r="AF7" s="138"/>
+      <c r="AG7" s="139"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="125"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="148" t="s">
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="152" t="s">
         <v>243</v>
       </c>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="153"/>
-      <c r="AE8" s="153"/>
-      <c r="AF8" s="153"/>
-      <c r="AG8" s="154"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="AB8" s="137"/>
+      <c r="AC8" s="138"/>
+      <c r="AD8" s="138"/>
+      <c r="AE8" s="138"/>
+      <c r="AF8" s="138"/>
+      <c r="AG8" s="139"/>
     </row>
     <row r="9" spans="1:33" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
@@ -8497,16 +8480,16 @@
       <c r="E9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="144" t="s">
+      <c r="F9" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="145"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="138" t="s">
+      <c r="G9" s="150"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="139"/>
-      <c r="K9" s="140"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="149"/>
       <c r="L9" s="34" t="s">
         <v>108</v>
       </c>
@@ -8522,16 +8505,16 @@
       <c r="P9" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="144" t="s">
+      <c r="Q9" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="146"/>
-      <c r="AB9" s="152"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="153"/>
-      <c r="AF9" s="153"/>
-      <c r="AG9" s="154"/>
+      <c r="R9" s="130"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="138"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="138"/>
+      <c r="AG9" s="139"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
@@ -8567,12 +8550,12 @@
         <v>40000</v>
       </c>
       <c r="M10" s="23"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="154"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="138"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="138"/>
+      <c r="AG10" s="139"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
@@ -8607,85 +8590,85 @@
       <c r="L11" s="62">
         <v>40000</v>
       </c>
-      <c r="AB11" s="152"/>
-      <c r="AC11" s="153"/>
-      <c r="AD11" s="153"/>
-      <c r="AE11" s="153"/>
-      <c r="AF11" s="153"/>
-      <c r="AG11" s="154"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="138"/>
+      <c r="AD11" s="138"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="138"/>
+      <c r="AG11" s="139"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="41"/>
-      <c r="AB12" s="152"/>
-      <c r="AC12" s="153"/>
-      <c r="AD12" s="153"/>
-      <c r="AE12" s="153"/>
-      <c r="AF12" s="153"/>
-      <c r="AG12" s="154"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="138"/>
+      <c r="AD12" s="138"/>
+      <c r="AE12" s="138"/>
+      <c r="AF12" s="138"/>
+      <c r="AG12" s="139"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="134"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="157"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="141"/>
+      <c r="AD13" s="141"/>
+      <c r="AE13" s="141"/>
+      <c r="AF13" s="141"/>
+      <c r="AG13" s="142"/>
     </row>
     <row r="14" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="127"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="129"/>
-      <c r="T14" s="135" t="s">
+      <c r="A14" s="124"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="U14" s="136"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="136"/>
-      <c r="Y14" s="137"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="133"/>
       <c r="Z14" s="66"/>
       <c r="AA14" s="66"/>
     </row>
@@ -8705,26 +8688,26 @@
       <c r="E15" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="158" t="s">
+      <c r="F15" s="146" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="138" t="s">
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="139"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="141" t="s">
+      <c r="J15" s="148"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="143" t="s">
         <v>249</v>
       </c>
-      <c r="M15" s="142"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="141" t="s">
+      <c r="M15" s="144"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="143" t="s">
         <v>250</v>
       </c>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="143"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="145"/>
       <c r="R15" s="34" t="s">
         <v>71</v>
       </c>
@@ -8743,10 +8726,10 @@
       <c r="W15" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="X15" s="144" t="s">
+      <c r="X15" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="Y15" s="146"/>
+      <c r="Y15" s="130"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
@@ -8793,25 +8776,25 @@
       <c r="T17" s="32"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="134"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="67"/>
@@ -8825,14 +8808,14 @@
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
-      <c r="L19" s="135" t="s">
+      <c r="L19" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="136"/>
-      <c r="Q19" s="137"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="133"/>
     </row>
     <row r="20" spans="1:20" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
@@ -8850,16 +8833,16 @@
       <c r="E20" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="158" t="s">
+      <c r="F20" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="141" t="s">
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="142"/>
-      <c r="K20" s="143"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="145"/>
       <c r="L20" s="65" t="s">
         <v>109</v>
       </c>
@@ -8872,10 +8855,10 @@
       <c r="O20" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="144" t="s">
+      <c r="P20" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="Q20" s="146"/>
+      <c r="Q20" s="130"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
@@ -8921,18 +8904,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="AB2:AG13"/>
-    <mergeCell ref="A13:Y13"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="A14:S14"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I20:K20"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:S2"/>
@@ -8947,6 +8918,18 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="A7:R7"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="AB2:AG13"/>
+    <mergeCell ref="A13:Y13"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8969,21 +8952,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="118" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="F1" s="114" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="F1" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="I1" s="114" t="s">
+      <c r="G1" s="85"/>
+      <c r="I1" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
@@ -9001,12 +8984,12 @@
       <c r="G2" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="153" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
@@ -9018,10 +9001,10 @@
       <c r="G3" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
@@ -9033,10 +9016,10 @@
       <c r="G4" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
@@ -9048,10 +9031,10 @@
       <c r="G5" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
@@ -9063,10 +9046,10 @@
       <c r="G6" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
